--- a/data_overview.xlsx
+++ b/data_overview.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="219">
   <si>
     <t>Article</t>
   </si>
@@ -261,13 +261,433 @@
   </si>
   <si>
     <t>librarians</t>
+  </si>
+  <si>
+    <t>love-actually</t>
+  </si>
+  <si>
+    <t>mad-men</t>
+  </si>
+  <si>
+    <t>male-flight-attendants</t>
+  </si>
+  <si>
+    <t>march-madness-predictions</t>
+  </si>
+  <si>
+    <t>march-madness-predictions-2015</t>
+  </si>
+  <si>
+    <t>Not useable</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>mayweather-mcgregor</t>
+  </si>
+  <si>
+    <t>mlb-allstar-teams</t>
+  </si>
+  <si>
+    <t>mlb-elo</t>
+  </si>
+  <si>
+    <t>most-common-name</t>
+  </si>
+  <si>
+    <t>??? Matrix??</t>
+  </si>
+  <si>
+    <t>murder_2016</t>
+  </si>
+  <si>
+    <t>nba-carmelo</t>
+  </si>
+  <si>
+    <t>nba-draft-2015</t>
+  </si>
+  <si>
+    <t>scatter (with line)</t>
+  </si>
+  <si>
+    <t>nba-elo</t>
+  </si>
+  <si>
+    <t>nba-tattoos</t>
+  </si>
+  <si>
+    <t>nba-winprobs</t>
+  </si>
+  <si>
+    <t>next-bechdel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity ? </t>
+  </si>
+  <si>
+    <t>?? Matrix??</t>
+  </si>
+  <si>
+    <t>nfl-elo</t>
+  </si>
+  <si>
+    <t>nfl-fandom</t>
+  </si>
+  <si>
+    <t>nfl-favorite-team</t>
+  </si>
+  <si>
+    <t>nfl-suspensions</t>
+  </si>
+  <si>
+    <t>bar ??</t>
+  </si>
+  <si>
+    <t>nfl-ticket-prices</t>
+  </si>
+  <si>
+    <t>nfl-wide-receivers</t>
+  </si>
+  <si>
+    <t>nutrition-studies</t>
+  </si>
+  <si>
+    <t>? Nakijken</t>
+  </si>
+  <si>
+    <t>? nakijken</t>
+  </si>
+  <si>
+    <t>obama-commutations</t>
+  </si>
+  <si>
+    <t>pew-religions</t>
+  </si>
+  <si>
+    <t>police-deaths</t>
+  </si>
+  <si>
+    <t>police-killings</t>
+  </si>
+  <si>
+    <t>police-locals</t>
+  </si>
+  <si>
+    <t>????? Nakijken</t>
+  </si>
+  <si>
+    <t>70.1</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-pollsters-predict</t>
+  </si>
+  <si>
+    <t>70.2</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-pollsters-say</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-even-pollsters-dont-know</t>
+  </si>
+  <si>
+    <t>70.3</t>
+  </si>
+  <si>
+    <t>70.4</t>
+  </si>
+  <si>
+    <t>most-pollsters-we-surveyed-say</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-most-pollsters-say</t>
+  </si>
+  <si>
+    <t>70.5</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-iowa-teaches-pollsters</t>
+  </si>
+  <si>
+    <t>70.6</t>
+  </si>
+  <si>
+    <t>70.7</t>
+  </si>
+  <si>
+    <t>poll-of-pollsters-top-pollsters-expect</t>
+  </si>
+  <si>
+    <t>71.1</t>
+  </si>
+  <si>
+    <t>pollster-ratings-how-fivethirtyeight-calcula</t>
+  </si>
+  <si>
+    <t>71.2</t>
+  </si>
+  <si>
+    <t>pollster-ratings-the-state-of-the-polls-2016</t>
+  </si>
+  <si>
+    <t>???? Nakijken</t>
+  </si>
+  <si>
+    <t>72.1</t>
+  </si>
+  <si>
+    <t>potential-candidates-romney-not-running-</t>
+  </si>
+  <si>
+    <t>potential-candidates-2016-president-who-is-going-to-run</t>
+  </si>
+  <si>
+    <t>72.2</t>
+  </si>
+  <si>
+    <t>presidential-campaign-trail</t>
+  </si>
+  <si>
+    <t>presidential-commencement-speeches</t>
+  </si>
+  <si>
+    <t>???? Niet zeker</t>
+  </si>
+  <si>
+    <t>puerto-rico-media-the-media-really-has-neglected-puerto-rico</t>
+  </si>
+  <si>
+    <t>75.1</t>
+  </si>
+  <si>
+    <t>75.2</t>
+  </si>
+  <si>
+    <t>puerto-rico-media-the-media-really-started-paying-attent</t>
+  </si>
+  <si>
+    <t>pulitzer</t>
+  </si>
+  <si>
+    <t>77.1</t>
+  </si>
+  <si>
+    <t>region-survey-which-states-are-in-the-south</t>
+  </si>
+  <si>
+    <t>77.2</t>
+  </si>
+  <si>
+    <t>region-survey-what-states-are-in-the-midwest</t>
+  </si>
+  <si>
+    <t>77.3</t>
+  </si>
+  <si>
+    <t>region-survey-weve-published-our-data-on-the-south-and-midwest</t>
+  </si>
+  <si>
+    <t>Geen afbeeldingen</t>
+  </si>
+  <si>
+    <t>religion-survey</t>
+  </si>
+  <si>
+    <t>79.1</t>
+  </si>
+  <si>
+    <t>reluctant-trump-trumps-reluctant-voters-are-getting-more-reluctant</t>
+  </si>
+  <si>
+    <t>79.2</t>
+  </si>
+  <si>
+    <t>reluctant-trump-reluctant-trump-voters-swung-the-election-heres</t>
+  </si>
+  <si>
+    <t>79.3</t>
+  </si>
+  <si>
+    <t>reluctant-trump-how-trumps-least-enthusiastic-voters-feel-about-him-now</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>repeated-phrases-gop</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>81.1</t>
+  </si>
+  <si>
+    <t>riddler-castles-can-you-rule-riddler-nation</t>
+  </si>
+  <si>
+    <t>81.2</t>
+  </si>
+  <si>
+    <t>riddler-castles-the-battle-for-riddler-nation-round-2</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>niet nodig?</t>
+  </si>
+  <si>
+    <t>riddler-pick-lowest-is-this-bathroom-occupied</t>
+  </si>
+  <si>
+    <t>82.1</t>
+  </si>
+  <si>
+    <t>puzzle? Or network?</t>
+  </si>
+  <si>
+    <t>82.2</t>
+  </si>
+  <si>
+    <t>riddler-pick-lowest-pick-a-number-any-number</t>
+  </si>
+  <si>
+    <t>san-andreas</t>
+  </si>
+  <si>
+    <t>sandy-311-calls</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>science-giving</t>
+  </si>
+  <si>
+    <t>scrabble-games</t>
+  </si>
+  <si>
+    <t>sleeping-alone-data</t>
+  </si>
+  <si>
+    <t>soccer-spi-global-club-soccer-rankings</t>
+  </si>
+  <si>
+    <t>tekst uit tabel gekopieerd</t>
+  </si>
+  <si>
+    <t>88.1</t>
+  </si>
+  <si>
+    <t>88.2</t>
+  </si>
+  <si>
+    <t>soccer-spi-club-soccer-predictions</t>
+  </si>
+  <si>
+    <t>star-wars-survey</t>
+  </si>
+  <si>
+    <t>90.1</t>
+  </si>
+  <si>
+    <t>steak-survey-how-americans-like-their-steak</t>
+  </si>
+  <si>
+    <t>steak-survey-how-americans-order-their-steak</t>
+  </si>
+  <si>
+    <t>90.2</t>
+  </si>
+  <si>
+    <t>study-drugs</t>
+  </si>
+  <si>
+    <t>subreddit-algebra</t>
+  </si>
+  <si>
+    <t>ternary</t>
+  </si>
+  <si>
+    <t>tarantino</t>
+  </si>
+  <si>
+    <t>tennis-time</t>
+  </si>
+  <si>
+    <t>tenth-circuit</t>
+  </si>
+  <si>
+    <t>terrorism</t>
+  </si>
+  <si>
+    <t>thanksgiving-2015</t>
+  </si>
+  <si>
+    <t>trump-approval-ratings</t>
+  </si>
+  <si>
+    <t>trump-news</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>trump-twitter</t>
+  </si>
+  <si>
+    <t>bar (density)</t>
+  </si>
+  <si>
+    <t>trump-world-trust</t>
+  </si>
+  <si>
+    <t>network line?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">network line? </t>
+  </si>
+  <si>
+    <t>twitter-ratio</t>
+  </si>
+  <si>
+    <t>undefeated-boxers</t>
+  </si>
+  <si>
+    <t>line???</t>
+  </si>
+  <si>
+    <t>unisex-names</t>
+  </si>
+  <si>
+    <t>us-weather-history</t>
+  </si>
+  <si>
+    <t>weather-check</t>
+  </si>
+  <si>
+    <t>womens-world-cup-predictions</t>
+  </si>
+  <si>
+    <t>108.1</t>
+  </si>
+  <si>
+    <t>world-cup-predictions-its-brazils-world-cup-to-lose</t>
+  </si>
+  <si>
+    <t>world-cup-predictions-extra-time-isnt-a-crapshoot-in-the-knockout-round-but-penalties-are</t>
+  </si>
+  <si>
+    <t>108.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +718,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -420,7 +847,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -468,6 +895,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,11 +1083,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="7" dataCellStyle="Standaard">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Standaard">
   <autoFilter ref="A1:I1048576"/>
   <tableColumns count="9">
-    <tableColumn id="8" name="#" dataDxfId="9" dataCellStyle="Standaard"/>
-    <tableColumn id="1" name="Article" dataDxfId="8" dataCellStyle="Standaard"/>
+    <tableColumn id="8" name="#" dataDxfId="8" dataCellStyle="Standaard"/>
+    <tableColumn id="1" name="Article" dataDxfId="7" dataCellStyle="Standaard"/>
     <tableColumn id="2" name="Table" dataDxfId="6" dataCellStyle="Goed"/>
     <tableColumn id="3" name="# columns" dataDxfId="5" dataCellStyle="Goed"/>
     <tableColumn id="4" name="# numeric" dataDxfId="4" dataCellStyle="Goed"/>
@@ -949,23 +1397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
+      <selection activeCell="I381" sqref="I381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3166,6 +3614,3980 @@
       </c>
       <c r="F141" s="9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>41</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+      <c r="D142" s="8">
+        <v>3</v>
+      </c>
+      <c r="E142" s="8">
+        <v>2</v>
+      </c>
+      <c r="F142" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>41</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C143" s="7">
+        <v>2</v>
+      </c>
+      <c r="D143" s="8">
+        <v>3</v>
+      </c>
+      <c r="E143" s="8">
+        <v>2</v>
+      </c>
+      <c r="F143" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>41</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="13">
+        <v>1</v>
+      </c>
+      <c r="H144" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>41</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="13">
+        <v>2</v>
+      </c>
+      <c r="H145" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>41</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="13">
+        <v>3</v>
+      </c>
+      <c r="H146" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>41</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C147" s="7">
+        <v>3</v>
+      </c>
+      <c r="D147" s="8">
+        <v>5</v>
+      </c>
+      <c r="E147" s="8">
+        <v>2</v>
+      </c>
+      <c r="F147" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>42</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" s="7">
+        <v>1</v>
+      </c>
+      <c r="D148" s="8">
+        <v>5</v>
+      </c>
+      <c r="E148" s="8">
+        <v>2</v>
+      </c>
+      <c r="F148" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>43</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G149" s="13">
+        <v>1</v>
+      </c>
+      <c r="H149" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>43</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G150" s="13">
+        <v>2</v>
+      </c>
+      <c r="H150" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="17">
+        <v>44</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="21"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="17">
+        <v>45</v>
+      </c>
+      <c r="B152" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="21"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>46</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G153" s="13">
+        <v>1</v>
+      </c>
+      <c r="H153" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>46</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G154" s="13">
+        <v>2</v>
+      </c>
+      <c r="H154" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>46</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G155" s="13">
+        <v>3</v>
+      </c>
+      <c r="H155" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>46</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G156" s="13">
+        <v>3</v>
+      </c>
+      <c r="H156" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>47</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G157" s="13">
+        <v>1</v>
+      </c>
+      <c r="H157" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>47</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G158" s="13">
+        <v>2</v>
+      </c>
+      <c r="H158" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>47</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G159" s="13">
+        <v>3</v>
+      </c>
+      <c r="H159" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>47</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G160" s="13">
+        <v>4</v>
+      </c>
+      <c r="H160" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>48</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C161" s="7">
+        <v>1</v>
+      </c>
+      <c r="D161" s="8">
+        <v>10</v>
+      </c>
+      <c r="E161" s="8">
+        <v>8</v>
+      </c>
+      <c r="F161" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>49</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G162" s="13">
+        <v>1</v>
+      </c>
+      <c r="H162" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>49</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G163" s="13">
+        <v>2</v>
+      </c>
+      <c r="H163" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>49</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G164" s="13">
+        <v>3</v>
+      </c>
+      <c r="H164" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>49</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G165" s="13">
+        <v>4</v>
+      </c>
+      <c r="H165" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>49</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G166" s="13">
+        <v>5</v>
+      </c>
+      <c r="H166" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>50</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G167" s="13">
+        <v>1</v>
+      </c>
+      <c r="H167" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>50</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G168" s="13">
+        <v>2</v>
+      </c>
+      <c r="H168" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>50</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G169" s="13">
+        <v>3</v>
+      </c>
+      <c r="H169" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I169" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>50</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G170" s="13">
+        <v>4</v>
+      </c>
+      <c r="H170" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I170" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>50</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G171" s="13">
+        <v>5</v>
+      </c>
+      <c r="H171" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I171" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>51</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C172" s="7">
+        <v>1</v>
+      </c>
+      <c r="D172" s="8">
+        <v>5</v>
+      </c>
+      <c r="E172" s="8">
+        <v>4</v>
+      </c>
+      <c r="F172" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>52</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G173" s="13">
+        <v>1</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>52</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G174" s="13">
+        <v>2</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>52</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G175" s="13">
+        <v>3</v>
+      </c>
+      <c r="H175" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>52</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" s="13">
+        <v>4</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>53</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G177" s="13">
+        <v>1</v>
+      </c>
+      <c r="H177" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>53</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" s="7">
+        <v>1</v>
+      </c>
+      <c r="D178" s="8">
+        <v>9</v>
+      </c>
+      <c r="E178" s="8">
+        <v>5</v>
+      </c>
+      <c r="F178" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>54</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G179" s="13">
+        <v>1</v>
+      </c>
+      <c r="H179" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>54</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G180" s="13">
+        <v>2</v>
+      </c>
+      <c r="H180" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>54</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G181" s="13">
+        <v>3</v>
+      </c>
+      <c r="H181" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>54</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G182" s="13">
+        <v>4</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>55</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C183" s="7">
+        <v>1</v>
+      </c>
+      <c r="D183" s="8">
+        <v>2</v>
+      </c>
+      <c r="E183" s="8">
+        <v>1</v>
+      </c>
+      <c r="F183" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>56</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G184" s="13">
+        <v>1</v>
+      </c>
+      <c r="H184" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>57</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G185" s="13">
+        <v>1</v>
+      </c>
+      <c r="H185" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I185" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>57</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G186" s="13">
+        <v>2</v>
+      </c>
+      <c r="H186" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>57</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G187" s="13">
+        <v>3</v>
+      </c>
+      <c r="H187" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>57</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G188" s="13">
+        <v>4</v>
+      </c>
+      <c r="H188" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>57</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G189" s="13">
+        <v>5</v>
+      </c>
+      <c r="H189" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>57</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G190" s="13">
+        <v>6</v>
+      </c>
+      <c r="H190" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>57</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G191" s="13">
+        <v>7</v>
+      </c>
+      <c r="H191" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>57</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G192" s="13">
+        <v>8</v>
+      </c>
+      <c r="H192" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>57</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G193" s="13">
+        <v>9</v>
+      </c>
+      <c r="H193" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>57</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G194" s="13">
+        <v>10</v>
+      </c>
+      <c r="H194" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>57</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G195" s="13">
+        <v>11</v>
+      </c>
+      <c r="H195" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>57</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G196" s="13">
+        <v>12</v>
+      </c>
+      <c r="H196" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>57</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G197" s="13">
+        <v>13</v>
+      </c>
+      <c r="H197" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>57</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G198" s="13">
+        <v>14</v>
+      </c>
+      <c r="H198" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>58</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G199" s="13">
+        <v>1</v>
+      </c>
+      <c r="H199" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>58</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G200" s="13">
+        <v>2</v>
+      </c>
+      <c r="H200" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>58</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G201" s="13">
+        <v>3</v>
+      </c>
+      <c r="H201" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>58</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G202" s="13">
+        <v>4</v>
+      </c>
+      <c r="H202" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>59</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G203" s="13">
+        <v>1</v>
+      </c>
+      <c r="H203" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>59</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G204" s="13">
+        <v>2</v>
+      </c>
+      <c r="H204" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>59</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G205" s="13">
+        <v>3</v>
+      </c>
+      <c r="H205" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>59</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G206" s="13">
+        <v>4</v>
+      </c>
+      <c r="H206" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>60</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C207" s="7">
+        <v>1</v>
+      </c>
+      <c r="D207" s="8">
+        <v>2</v>
+      </c>
+      <c r="E207" s="8">
+        <v>1</v>
+      </c>
+      <c r="F207" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>60</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C208" s="7">
+        <v>2</v>
+      </c>
+      <c r="D208" s="8">
+        <v>6</v>
+      </c>
+      <c r="E208" s="8">
+        <v>4</v>
+      </c>
+      <c r="F208" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>61</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G209" s="13">
+        <v>1</v>
+      </c>
+      <c r="H209" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>61</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G210" s="13">
+        <v>2</v>
+      </c>
+      <c r="H210" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>61</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C211" s="7">
+        <v>1</v>
+      </c>
+      <c r="D211" s="8">
+        <v>7</v>
+      </c>
+      <c r="F211" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>62</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G212" s="13">
+        <v>1</v>
+      </c>
+      <c r="H212" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>62</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G213" s="13">
+        <v>2</v>
+      </c>
+      <c r="H213" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>63</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C214" s="7">
+        <v>1</v>
+      </c>
+      <c r="D214" s="8">
+        <v>3</v>
+      </c>
+      <c r="E214" s="8">
+        <v>2</v>
+      </c>
+      <c r="F214" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>63</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C215" s="7">
+        <v>2</v>
+      </c>
+      <c r="D215" s="8">
+        <v>4</v>
+      </c>
+      <c r="E215" s="8">
+        <v>3</v>
+      </c>
+      <c r="F215" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>64</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G216" s="13">
+        <v>1</v>
+      </c>
+      <c r="H216" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>64</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C217" s="7">
+        <v>1</v>
+      </c>
+      <c r="D217" s="8">
+        <v>3</v>
+      </c>
+      <c r="E217" s="8">
+        <v>1</v>
+      </c>
+      <c r="F217" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>64</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G218" s="13">
+        <v>2</v>
+      </c>
+      <c r="H218" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>65</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="G219" s="13">
+        <v>1</v>
+      </c>
+      <c r="H219" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>66</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C220" s="7">
+        <v>1</v>
+      </c>
+      <c r="D220" s="8">
+        <v>6</v>
+      </c>
+      <c r="E220" s="8">
+        <v>5</v>
+      </c>
+      <c r="F220" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>66</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C221" s="7">
+        <v>2</v>
+      </c>
+      <c r="D221" s="8">
+        <v>4</v>
+      </c>
+      <c r="E221" s="8">
+        <v>3</v>
+      </c>
+      <c r="F221" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>67</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G222" s="13">
+        <v>1</v>
+      </c>
+      <c r="H222" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>67</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G223" s="13">
+        <v>2</v>
+      </c>
+      <c r="H223" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>68</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C224" s="7">
+        <v>1</v>
+      </c>
+      <c r="D224" s="8">
+        <v>6</v>
+      </c>
+      <c r="E224" s="8">
+        <v>2</v>
+      </c>
+      <c r="F224" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>69</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="G225" s="13">
+        <v>1</v>
+      </c>
+      <c r="H225" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>69</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C226" s="7">
+        <v>1</v>
+      </c>
+      <c r="D226" s="8">
+        <v>7</v>
+      </c>
+      <c r="E226" s="8">
+        <v>6</v>
+      </c>
+      <c r="F226" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C227" s="7">
+        <v>1</v>
+      </c>
+      <c r="D227" s="8">
+        <v>2</v>
+      </c>
+      <c r="E227" s="8">
+        <v>1</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C228" s="7">
+        <v>1</v>
+      </c>
+      <c r="D228" s="8">
+        <v>2</v>
+      </c>
+      <c r="F228" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C229" s="7">
+        <v>1</v>
+      </c>
+      <c r="D229" s="8">
+        <v>2</v>
+      </c>
+      <c r="F229" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C230" s="7">
+        <v>1</v>
+      </c>
+      <c r="D230" s="8">
+        <v>2</v>
+      </c>
+      <c r="F230" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C234" s="7">
+        <v>1</v>
+      </c>
+      <c r="D234" s="8">
+        <v>3</v>
+      </c>
+      <c r="E234" s="8">
+        <v>2</v>
+      </c>
+      <c r="F234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C235" s="7">
+        <v>2</v>
+      </c>
+      <c r="D235" s="8">
+        <v>3</v>
+      </c>
+      <c r="E235" s="8">
+        <v>2</v>
+      </c>
+      <c r="F235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G236" s="13">
+        <v>1</v>
+      </c>
+      <c r="H236" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C237" s="7">
+        <v>1</v>
+      </c>
+      <c r="D237" s="8">
+        <v>6</v>
+      </c>
+      <c r="E237" s="8">
+        <v>5</v>
+      </c>
+      <c r="F237" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C238" s="7">
+        <v>2</v>
+      </c>
+      <c r="D238" s="8">
+        <v>6</v>
+      </c>
+      <c r="E238" s="8">
+        <v>5</v>
+      </c>
+      <c r="F238" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G239" s="13">
+        <v>1</v>
+      </c>
+      <c r="H239" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" s="16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C240" s="7">
+        <v>3</v>
+      </c>
+      <c r="D240" s="8">
+        <v>6</v>
+      </c>
+      <c r="E240" s="8">
+        <v>2</v>
+      </c>
+      <c r="F240" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G241" s="13">
+        <v>1</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G242" s="13">
+        <v>2</v>
+      </c>
+      <c r="H242" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G243" s="13">
+        <v>1</v>
+      </c>
+      <c r="H243" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G244" s="13">
+        <v>2</v>
+      </c>
+      <c r="H244" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="3">
+        <v>73</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G245" s="13">
+        <v>1</v>
+      </c>
+      <c r="H245" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="3">
+        <v>74</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G246" s="13">
+        <v>1</v>
+      </c>
+      <c r="H246" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G247" s="13">
+        <v>1</v>
+      </c>
+      <c r="H247" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G248" s="13">
+        <v>2</v>
+      </c>
+      <c r="H248" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G249" s="13">
+        <v>3</v>
+      </c>
+      <c r="H249" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G250" s="13">
+        <v>4</v>
+      </c>
+      <c r="H250" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G251" s="13">
+        <v>1</v>
+      </c>
+      <c r="H251" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G252" s="13">
+        <v>2</v>
+      </c>
+      <c r="H252" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="G253" s="13">
+        <v>3</v>
+      </c>
+      <c r="H253" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="3">
+        <v>76</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="G254" s="13">
+        <v>1</v>
+      </c>
+      <c r="H254" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G255" s="13">
+        <v>1</v>
+      </c>
+      <c r="H255" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G256" s="13">
+        <v>1</v>
+      </c>
+      <c r="H256" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I257" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="3">
+        <v>78</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G258" s="13">
+        <v>1</v>
+      </c>
+      <c r="H258" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="3">
+        <v>78</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="G259" s="13">
+        <v>2</v>
+      </c>
+      <c r="H259" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G260" s="13">
+        <v>1</v>
+      </c>
+      <c r="H260" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G261" s="13">
+        <v>2</v>
+      </c>
+      <c r="H261" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G262" s="13">
+        <v>3</v>
+      </c>
+      <c r="H262" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G263" s="13">
+        <v>4</v>
+      </c>
+      <c r="H263" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G264" s="13">
+        <v>5</v>
+      </c>
+      <c r="H264" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G265" s="13">
+        <v>6</v>
+      </c>
+      <c r="H265" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G266" s="13">
+        <v>7</v>
+      </c>
+      <c r="H266" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I267" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G268" s="13">
+        <v>1</v>
+      </c>
+      <c r="H268" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I268" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="3">
+        <v>80</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C269" s="7">
+        <v>1</v>
+      </c>
+      <c r="D269" s="8">
+        <v>2</v>
+      </c>
+      <c r="E269" s="8">
+        <v>1</v>
+      </c>
+      <c r="F269" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="3">
+        <v>80</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C270" s="7">
+        <v>2</v>
+      </c>
+      <c r="D270" s="8">
+        <v>2</v>
+      </c>
+      <c r="E270" s="8">
+        <v>1</v>
+      </c>
+      <c r="F270" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="3">
+        <v>80</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C271" s="7">
+        <v>3</v>
+      </c>
+      <c r="D271" s="8">
+        <v>2</v>
+      </c>
+      <c r="E271" s="8">
+        <v>1</v>
+      </c>
+      <c r="F271" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="3">
+        <v>80</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C272" s="7">
+        <v>4</v>
+      </c>
+      <c r="D272" s="8">
+        <v>2</v>
+      </c>
+      <c r="E272" s="8">
+        <v>1</v>
+      </c>
+      <c r="F272" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="3">
+        <v>80</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G273" s="13">
+        <v>1</v>
+      </c>
+      <c r="H273" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G274" s="13">
+        <v>1</v>
+      </c>
+      <c r="H274" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I274" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G275" s="13">
+        <v>2</v>
+      </c>
+      <c r="H275" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G276" s="13">
+        <v>1</v>
+      </c>
+      <c r="H276" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I276" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="G277" s="13">
+        <v>2</v>
+      </c>
+      <c r="H277" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I277" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G278" s="13">
+        <v>1</v>
+      </c>
+      <c r="H278" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="G279" s="13">
+        <v>2</v>
+      </c>
+      <c r="H279" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I279" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G280" s="13">
+        <v>1</v>
+      </c>
+      <c r="H280" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>83</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G281" s="13">
+        <v>1</v>
+      </c>
+      <c r="H281" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
+        <v>84</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G282" s="13">
+        <v>1</v>
+      </c>
+      <c r="H282" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="3">
+        <v>84</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="G283" s="13">
+        <v>2</v>
+      </c>
+      <c r="H283" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="3">
+        <v>85</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="I284" s="16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="3">
+        <v>86</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G285" s="13">
+        <v>1</v>
+      </c>
+      <c r="H285" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="3">
+        <v>86</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G286" s="13">
+        <v>2</v>
+      </c>
+      <c r="H286" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="3">
+        <v>87</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G287" s="13">
+        <v>1</v>
+      </c>
+      <c r="H287" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="3">
+        <v>87</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G288" s="13">
+        <v>2</v>
+      </c>
+      <c r="H288" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C289" s="7">
+        <v>1</v>
+      </c>
+      <c r="D289" s="8">
+        <v>8</v>
+      </c>
+      <c r="E289" s="8">
+        <v>4</v>
+      </c>
+      <c r="F289" s="9">
+        <v>4</v>
+      </c>
+      <c r="I289" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C290" s="7">
+        <v>1</v>
+      </c>
+      <c r="D290" s="8">
+        <v>4</v>
+      </c>
+      <c r="E290" s="8">
+        <v>3</v>
+      </c>
+      <c r="F290" s="9">
+        <v>1</v>
+      </c>
+      <c r="I290" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C291" s="7">
+        <v>2</v>
+      </c>
+      <c r="D291" s="8">
+        <v>4</v>
+      </c>
+      <c r="E291" s="8">
+        <v>3</v>
+      </c>
+      <c r="F291" s="9">
+        <v>1</v>
+      </c>
+      <c r="I291" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C292" s="7">
+        <v>3</v>
+      </c>
+      <c r="D292" s="8">
+        <v>4</v>
+      </c>
+      <c r="E292" s="8">
+        <v>3</v>
+      </c>
+      <c r="F292" s="9">
+        <v>1</v>
+      </c>
+      <c r="I292" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C293" s="7">
+        <v>4</v>
+      </c>
+      <c r="D293" s="8">
+        <v>4</v>
+      </c>
+      <c r="E293" s="8">
+        <v>3</v>
+      </c>
+      <c r="F293" s="9">
+        <v>1</v>
+      </c>
+      <c r="I293" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C294" s="7">
+        <v>5</v>
+      </c>
+      <c r="D294" s="8">
+        <v>4</v>
+      </c>
+      <c r="E294" s="8">
+        <v>3</v>
+      </c>
+      <c r="F294" s="9">
+        <v>1</v>
+      </c>
+      <c r="I294" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C295" s="7">
+        <v>6</v>
+      </c>
+      <c r="D295" s="8">
+        <v>4</v>
+      </c>
+      <c r="E295" s="8">
+        <v>3</v>
+      </c>
+      <c r="F295" s="9">
+        <v>1</v>
+      </c>
+      <c r="I295" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C296" s="7">
+        <v>7</v>
+      </c>
+      <c r="D296" s="8">
+        <v>4</v>
+      </c>
+      <c r="E296" s="8">
+        <v>3</v>
+      </c>
+      <c r="F296" s="9">
+        <v>1</v>
+      </c>
+      <c r="I296" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C297" s="7">
+        <v>8</v>
+      </c>
+      <c r="D297" s="8">
+        <v>4</v>
+      </c>
+      <c r="E297" s="8">
+        <v>3</v>
+      </c>
+      <c r="F297" s="9">
+        <v>1</v>
+      </c>
+      <c r="I297" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C298" s="7">
+        <v>9</v>
+      </c>
+      <c r="D298" s="8">
+        <v>4</v>
+      </c>
+      <c r="E298" s="8">
+        <v>3</v>
+      </c>
+      <c r="F298" s="9">
+        <v>1</v>
+      </c>
+      <c r="I298" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C299" s="7">
+        <v>10</v>
+      </c>
+      <c r="D299" s="8">
+        <v>4</v>
+      </c>
+      <c r="E299" s="8">
+        <v>3</v>
+      </c>
+      <c r="F299" s="9">
+        <v>1</v>
+      </c>
+      <c r="I299" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C300" s="7">
+        <v>11</v>
+      </c>
+      <c r="D300" s="8">
+        <v>4</v>
+      </c>
+      <c r="E300" s="8">
+        <v>3</v>
+      </c>
+      <c r="F300" s="9">
+        <v>1</v>
+      </c>
+      <c r="I300" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C301" s="7">
+        <v>12</v>
+      </c>
+      <c r="D301" s="8">
+        <v>4</v>
+      </c>
+      <c r="E301" s="8">
+        <v>3</v>
+      </c>
+      <c r="F301" s="9">
+        <v>1</v>
+      </c>
+      <c r="I301" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C302" s="7">
+        <v>13</v>
+      </c>
+      <c r="D302" s="8">
+        <v>4</v>
+      </c>
+      <c r="E302" s="8">
+        <v>3</v>
+      </c>
+      <c r="F302" s="9">
+        <v>1</v>
+      </c>
+      <c r="I302" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C303" s="7">
+        <v>14</v>
+      </c>
+      <c r="D303" s="8">
+        <v>4</v>
+      </c>
+      <c r="E303" s="8">
+        <v>3</v>
+      </c>
+      <c r="F303" s="9">
+        <v>1</v>
+      </c>
+      <c r="I303" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C304" s="7">
+        <v>15</v>
+      </c>
+      <c r="D304" s="8">
+        <v>4</v>
+      </c>
+      <c r="E304" s="8">
+        <v>3</v>
+      </c>
+      <c r="F304" s="9">
+        <v>1</v>
+      </c>
+      <c r="I304" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C305" s="7">
+        <v>16</v>
+      </c>
+      <c r="D305" s="8">
+        <v>4</v>
+      </c>
+      <c r="E305" s="8">
+        <v>3</v>
+      </c>
+      <c r="F305" s="9">
+        <v>1</v>
+      </c>
+      <c r="I305" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C306" s="7">
+        <v>17</v>
+      </c>
+      <c r="D306" s="8">
+        <v>4</v>
+      </c>
+      <c r="E306" s="8">
+        <v>3</v>
+      </c>
+      <c r="F306" s="9">
+        <v>1</v>
+      </c>
+      <c r="I306" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C307" s="7">
+        <v>18</v>
+      </c>
+      <c r="D307" s="8">
+        <v>4</v>
+      </c>
+      <c r="E307" s="8">
+        <v>3</v>
+      </c>
+      <c r="F307" s="9">
+        <v>1</v>
+      </c>
+      <c r="I307" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C308" s="7">
+        <v>19</v>
+      </c>
+      <c r="D308" s="8">
+        <v>4</v>
+      </c>
+      <c r="E308" s="8">
+        <v>3</v>
+      </c>
+      <c r="F308" s="9">
+        <v>1</v>
+      </c>
+      <c r="I308" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C309" s="7">
+        <v>20</v>
+      </c>
+      <c r="D309" s="8">
+        <v>4</v>
+      </c>
+      <c r="E309" s="8">
+        <v>3</v>
+      </c>
+      <c r="F309" s="9">
+        <v>1</v>
+      </c>
+      <c r="I309" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C310" s="7">
+        <v>21</v>
+      </c>
+      <c r="D310" s="8">
+        <v>4</v>
+      </c>
+      <c r="E310" s="8">
+        <v>3</v>
+      </c>
+      <c r="F310" s="9">
+        <v>1</v>
+      </c>
+      <c r="I310" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C311" s="7">
+        <v>22</v>
+      </c>
+      <c r="D311" s="8">
+        <v>4</v>
+      </c>
+      <c r="E311" s="8">
+        <v>3</v>
+      </c>
+      <c r="F311" s="9">
+        <v>1</v>
+      </c>
+      <c r="I311" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C312" s="7">
+        <v>23</v>
+      </c>
+      <c r="D312" s="8">
+        <v>4</v>
+      </c>
+      <c r="E312" s="8">
+        <v>3</v>
+      </c>
+      <c r="F312" s="9">
+        <v>1</v>
+      </c>
+      <c r="I312" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C313" s="7">
+        <v>24</v>
+      </c>
+      <c r="D313" s="8">
+        <v>4</v>
+      </c>
+      <c r="E313" s="8">
+        <v>3</v>
+      </c>
+      <c r="F313" s="9">
+        <v>1</v>
+      </c>
+      <c r="I313" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C314" s="7">
+        <v>25</v>
+      </c>
+      <c r="D314" s="8">
+        <v>4</v>
+      </c>
+      <c r="E314" s="8">
+        <v>3</v>
+      </c>
+      <c r="F314" s="9">
+        <v>1</v>
+      </c>
+      <c r="I314" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="3">
+        <v>89</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G315" s="13">
+        <v>1</v>
+      </c>
+      <c r="H315" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="3">
+        <v>89</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G316" s="13">
+        <v>2</v>
+      </c>
+      <c r="H316" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="3">
+        <v>89</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G317" s="13">
+        <v>2</v>
+      </c>
+      <c r="H317" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="3">
+        <v>89</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G318" s="13">
+        <v>4</v>
+      </c>
+      <c r="H318" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="3">
+        <v>89</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G319" s="13">
+        <v>5</v>
+      </c>
+      <c r="H319" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C320" s="7">
+        <v>1</v>
+      </c>
+      <c r="D320" s="8">
+        <v>3</v>
+      </c>
+      <c r="E320" s="8">
+        <v>2</v>
+      </c>
+      <c r="F320" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G321" s="13">
+        <v>1</v>
+      </c>
+      <c r="H321" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G322" s="13">
+        <v>1</v>
+      </c>
+      <c r="H322" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G323" s="13">
+        <v>2</v>
+      </c>
+      <c r="H323" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I323" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="3">
+        <v>91</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G324" s="13">
+        <v>1</v>
+      </c>
+      <c r="H324" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="3">
+        <v>91</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G325" s="13">
+        <v>2</v>
+      </c>
+      <c r="H325" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="3">
+        <v>92</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G326" s="13">
+        <v>1</v>
+      </c>
+      <c r="H326" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="3">
+        <v>92</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G327" s="13">
+        <v>2</v>
+      </c>
+      <c r="H327" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="3">
+        <v>92</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G328" s="13">
+        <v>3</v>
+      </c>
+      <c r="H328" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="3">
+        <v>93</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G329" s="13">
+        <v>1</v>
+      </c>
+      <c r="H329" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="3">
+        <v>93</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C330" s="7">
+        <v>1</v>
+      </c>
+      <c r="D330" s="8">
+        <v>4</v>
+      </c>
+      <c r="E330" s="8">
+        <v>3</v>
+      </c>
+      <c r="F330" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="3">
+        <v>93</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C331" s="7">
+        <v>2</v>
+      </c>
+      <c r="D331" s="8">
+        <v>3</v>
+      </c>
+      <c r="E331" s="8">
+        <v>2</v>
+      </c>
+      <c r="F331" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="3">
+        <v>93</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C332" s="7">
+        <v>3</v>
+      </c>
+      <c r="D332" s="8">
+        <v>3</v>
+      </c>
+      <c r="E332" s="8">
+        <v>2</v>
+      </c>
+      <c r="F332" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="3">
+        <v>94</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G333" s="13">
+        <v>1</v>
+      </c>
+      <c r="H333" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="3">
+        <v>94</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C334" s="7">
+        <v>1</v>
+      </c>
+      <c r="D334" s="8">
+        <v>4</v>
+      </c>
+      <c r="E334" s="8">
+        <v>1</v>
+      </c>
+      <c r="F334" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="3">
+        <v>94</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C335" s="7">
+        <v>2</v>
+      </c>
+      <c r="D335" s="8">
+        <v>4</v>
+      </c>
+      <c r="E335" s="8">
+        <v>1</v>
+      </c>
+      <c r="F335" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="3">
+        <v>94</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C336" s="7">
+        <v>3</v>
+      </c>
+      <c r="D336" s="8">
+        <v>4</v>
+      </c>
+      <c r="E336" s="8">
+        <v>1</v>
+      </c>
+      <c r="F336" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="3">
+        <v>94</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C337" s="7">
+        <v>4</v>
+      </c>
+      <c r="D337" s="8">
+        <v>2</v>
+      </c>
+      <c r="E337" s="8">
+        <v>1</v>
+      </c>
+      <c r="F337" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="3">
+        <v>94</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C338" s="7">
+        <v>5</v>
+      </c>
+      <c r="D338" s="8">
+        <v>2</v>
+      </c>
+      <c r="E338" s="8">
+        <v>1</v>
+      </c>
+      <c r="F338" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="3">
+        <v>94</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C339" s="7">
+        <v>6</v>
+      </c>
+      <c r="D339" s="8">
+        <v>2</v>
+      </c>
+      <c r="E339" s="8">
+        <v>1</v>
+      </c>
+      <c r="F339" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="3">
+        <v>94</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G340" s="13">
+        <v>2</v>
+      </c>
+      <c r="H340" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="3">
+        <v>94</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G341" s="13">
+        <v>3</v>
+      </c>
+      <c r="H341" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>94</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G342" s="13">
+        <v>4</v>
+      </c>
+      <c r="H342" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="3">
+        <v>94</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="G343" s="13">
+        <v>5</v>
+      </c>
+      <c r="H343" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>95</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G344" s="13">
+        <v>1</v>
+      </c>
+      <c r="H344" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I344" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="3">
+        <v>96</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G345" s="13">
+        <v>1</v>
+      </c>
+      <c r="H345" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>96</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G346" s="13">
+        <v>2</v>
+      </c>
+      <c r="H346" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="3">
+        <v>96</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G347" s="13">
+        <v>3</v>
+      </c>
+      <c r="H347" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
+        <v>96</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C348" s="7">
+        <v>1</v>
+      </c>
+      <c r="D348" s="8">
+        <v>2</v>
+      </c>
+      <c r="E348" s="8">
+        <v>1</v>
+      </c>
+      <c r="F348" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>97</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G349" s="13">
+        <v>1</v>
+      </c>
+      <c r="H349" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>98</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I350" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="3">
+        <v>99</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C351" s="7">
+        <v>1</v>
+      </c>
+      <c r="D351" s="8">
+        <v>4</v>
+      </c>
+      <c r="E351" s="8">
+        <v>3</v>
+      </c>
+      <c r="F351" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>99</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G352" s="13">
+        <v>1</v>
+      </c>
+      <c r="H352" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="3">
+        <v>99</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G353" s="13">
+        <v>2</v>
+      </c>
+      <c r="H353" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>99</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G354" s="13">
+        <v>3</v>
+      </c>
+      <c r="H354" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>99</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G355" s="13">
+        <v>4</v>
+      </c>
+      <c r="H355" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>100</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C356" s="7">
+        <v>1</v>
+      </c>
+      <c r="D356" s="8">
+        <v>3</v>
+      </c>
+      <c r="E356" s="8">
+        <v>2</v>
+      </c>
+      <c r="F356" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="3">
+        <v>100</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G357" s="13">
+        <v>1</v>
+      </c>
+      <c r="H357" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="3">
+        <v>100</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C358" s="7">
+        <v>2</v>
+      </c>
+      <c r="D358" s="8">
+        <v>5</v>
+      </c>
+      <c r="E358" s="8">
+        <v>4</v>
+      </c>
+      <c r="F358" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="3">
+        <v>101</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G359" s="13">
+        <v>1</v>
+      </c>
+      <c r="H359" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="I359" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="3">
+        <v>101</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G360" s="13">
+        <v>2</v>
+      </c>
+      <c r="H360" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I360" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="3">
+        <v>101</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="G361" s="13">
+        <v>3</v>
+      </c>
+      <c r="H361" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I361" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="3">
+        <v>102</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G362" s="13">
+        <v>1</v>
+      </c>
+      <c r="H362" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="3">
+        <v>102</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G363" s="13">
+        <v>2</v>
+      </c>
+      <c r="H363" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="3">
+        <v>102</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G364" s="13">
+        <v>3</v>
+      </c>
+      <c r="H364" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="3">
+        <v>102</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G365" s="13">
+        <v>4</v>
+      </c>
+      <c r="H365" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="3">
+        <v>102</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G366" s="13">
+        <v>5</v>
+      </c>
+      <c r="H366" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="3">
+        <v>103</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G367" s="13">
+        <v>1</v>
+      </c>
+      <c r="H367" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="I367" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="3">
+        <v>104</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="G368" s="13">
+        <v>1</v>
+      </c>
+      <c r="H368" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="3">
+        <v>104</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C369" s="7">
+        <v>1</v>
+      </c>
+      <c r="D369" s="8">
+        <v>5</v>
+      </c>
+      <c r="E369" s="8">
+        <v>4</v>
+      </c>
+      <c r="F369" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="3">
+        <v>105</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G370" s="13">
+        <v>1</v>
+      </c>
+      <c r="H370" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="3">
+        <v>105</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G371" s="13">
+        <v>2</v>
+      </c>
+      <c r="H371" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="3">
+        <v>105</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G372" s="13">
+        <v>3</v>
+      </c>
+      <c r="H372" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="3">
+        <v>105</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G373" s="13">
+        <v>4</v>
+      </c>
+      <c r="H373" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="3">
+        <v>105</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G374" s="13">
+        <v>5</v>
+      </c>
+      <c r="H374" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="3">
+        <v>105</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G375" s="13">
+        <v>6</v>
+      </c>
+      <c r="H375" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="3">
+        <v>105</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G376" s="13">
+        <v>7</v>
+      </c>
+      <c r="H376" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="3">
+        <v>105</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G377" s="13">
+        <v>8</v>
+      </c>
+      <c r="H377" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="3">
+        <v>105</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G378" s="13">
+        <v>9</v>
+      </c>
+      <c r="H378" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="3">
+        <v>105</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="G379" s="13">
+        <v>10</v>
+      </c>
+      <c r="H379" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="3">
+        <v>106</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C380" s="7">
+        <v>1</v>
+      </c>
+      <c r="D380" s="8">
+        <v>2</v>
+      </c>
+      <c r="E380" s="8">
+        <v>1</v>
+      </c>
+      <c r="F380" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="3">
+        <v>107</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C381" s="7">
+        <v>1</v>
+      </c>
+      <c r="D381" s="8">
+        <v>8</v>
+      </c>
+      <c r="E381" s="8">
+        <v>4</v>
+      </c>
+      <c r="F381" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="G382" s="13">
+        <v>1</v>
+      </c>
+      <c r="H382" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C383" s="7">
+        <v>1</v>
+      </c>
+      <c r="D383" s="8">
+        <v>2</v>
+      </c>
+      <c r="E383" s="8">
+        <v>1</v>
+      </c>
+      <c r="F383" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C384" s="7">
+        <v>1</v>
+      </c>
+      <c r="D384" s="8">
+        <v>7</v>
+      </c>
+      <c r="F384" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="G385" s="13">
+        <v>1</v>
+      </c>
+      <c r="H385" s="14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data_overview.xlsx
+++ b/data_overview.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Desktop\Master-thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mike/Desktop/Master-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{64526841-1B53-7740-BF22-D4B18F011A01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33100" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="223">
   <si>
     <t>Article</t>
   </si>
@@ -251,9 +252,6 @@
     <t>historical-ncaa-forecasts</t>
   </si>
   <si>
-    <t>wat voor soort is dit?</t>
-  </si>
-  <si>
     <t>inconvenient-sequel</t>
   </si>
   <si>
@@ -296,9 +294,6 @@
     <t>most-common-name</t>
   </si>
   <si>
-    <t>??? Matrix??</t>
-  </si>
-  <si>
     <t>murder_2016</t>
   </si>
   <si>
@@ -681,12 +676,30 @@
   </si>
   <si>
     <t>108.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wat voor soort is dit? Mag als bar </t>
+  </si>
+  <si>
+    <t>Not useable | dendrogram</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>kan in bar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,9 +936,12 @@
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
     <cellStyle name="Neutraal" xfId="3" builtinId="28"/>
     <cellStyle name="Ongeldig" xfId="2" builtinId="27"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1083,18 +1099,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" dataCellStyle="Standaard">
-  <autoFilter ref="A1:I1048576"/>
-  <tableColumns count="9">
-    <tableColumn id="8" name="#" dataDxfId="8" dataCellStyle="Standaard"/>
-    <tableColumn id="1" name="Article" dataDxfId="7" dataCellStyle="Standaard"/>
-    <tableColumn id="2" name="Table" dataDxfId="6" dataCellStyle="Goed"/>
-    <tableColumn id="3" name="# columns" dataDxfId="5" dataCellStyle="Goed"/>
-    <tableColumn id="4" name="# numeric" dataDxfId="4" dataCellStyle="Goed"/>
-    <tableColumn id="5" name="# categorial" dataDxfId="3" dataCellStyle="Goed"/>
-    <tableColumn id="6" name="Figure" dataDxfId="2" dataCellStyle="Neutraal"/>
-    <tableColumn id="7" name="# type graph" dataDxfId="1" dataCellStyle="Neutraal"/>
-    <tableColumn id="9" name="Notes" dataDxfId="0" dataCellStyle="Ongeldig"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabel3" displayName="Tabel3" ref="A1:J1048576" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J1048576" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="#" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Article" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Table" dataDxfId="7" dataCellStyle="Goed"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="# columns" dataDxfId="6" dataCellStyle="Goed"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="# numeric" dataDxfId="5" dataCellStyle="Goed"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="# categorial" dataDxfId="4" dataCellStyle="Goed"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Figure" dataDxfId="3" dataCellStyle="Neutraal"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="# type graph" dataDxfId="2" dataCellStyle="Neutraal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Notes" dataDxfId="1" dataCellStyle="Ongeldig"/>
+    <tableColumn id="10" xr3:uid="{4BE2AC88-EF48-C84F-A12B-5994106E754A}" name="Kolom1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1103,7 +1120,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1141,7 +1158,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1247,7 +1264,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1396,27 +1413,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I385"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A365" workbookViewId="0">
-      <selection activeCell="I381" sqref="I381"/>
+    <sheetView tabSelected="1" topLeftCell="A264" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E344" sqref="E344"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" thickTop="1" thickBottom="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -1444,8 +1462,11 @@
       <c r="I1" s="15" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1459,7 +1480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1490,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1504,7 +1525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -1524,7 +1545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -1544,7 +1565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1564,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1578,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1598,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1612,7 +1633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>4</v>
       </c>
@@ -1626,7 +1647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>4</v>
       </c>
@@ -1640,7 +1661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1648,7 +1669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
@@ -1662,7 +1683,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1676,7 +1697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1718,7 +1739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -1732,7 +1753,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>19</v>
       </c>
@@ -1788,7 +1809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1802,7 +1823,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -1816,7 +1837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>7</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>7</v>
       </c>
@@ -1858,7 +1879,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>7</v>
       </c>
@@ -1872,7 +1893,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>7</v>
       </c>
@@ -1886,7 +1907,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -1900,7 +1921,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -1914,7 +1935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>8</v>
       </c>
@@ -1928,7 +1949,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>8</v>
       </c>
@@ -1942,7 +1963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -1956,7 +1977,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>9</v>
       </c>
@@ -1970,7 +1991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>9</v>
       </c>
@@ -1984,7 +2005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>10</v>
       </c>
@@ -1998,7 +2019,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>10</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>11</v>
       </c>
@@ -2026,7 +2047,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>12</v>
       </c>
@@ -2040,7 +2061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>13</v>
       </c>
@@ -2054,7 +2075,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>13</v>
       </c>
@@ -2074,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>13</v>
       </c>
@@ -2088,7 +2109,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>14</v>
       </c>
@@ -2102,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>14</v>
       </c>
@@ -2116,7 +2137,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>14</v>
       </c>
@@ -2130,7 +2151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>14</v>
       </c>
@@ -2150,7 +2171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>15</v>
       </c>
@@ -2164,7 +2185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>15</v>
       </c>
@@ -2181,7 +2202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>15</v>
       </c>
@@ -2201,7 +2222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>15</v>
       </c>
@@ -2215,7 +2236,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>16</v>
       </c>
@@ -2235,7 +2256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>16</v>
       </c>
@@ -2255,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>17</v>
       </c>
@@ -2269,7 +2290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>17</v>
       </c>
@@ -2283,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>17</v>
       </c>
@@ -2297,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>17</v>
       </c>
@@ -2311,7 +2332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>17</v>
       </c>
@@ -2325,7 +2346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>18</v>
       </c>
@@ -2339,7 +2360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>19</v>
       </c>
@@ -2353,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>19</v>
       </c>
@@ -2367,7 +2388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>19</v>
       </c>
@@ -2381,7 +2402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>19</v>
       </c>
@@ -2395,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>20</v>
       </c>
@@ -2403,7 +2424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>21</v>
       </c>
@@ -2417,7 +2438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>22</v>
       </c>
@@ -2431,7 +2452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>23</v>
       </c>
@@ -2445,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>24</v>
       </c>
@@ -2465,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>25</v>
       </c>
@@ -2479,7 +2500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>26</v>
       </c>
@@ -2493,7 +2514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>26</v>
       </c>
@@ -2507,7 +2528,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="74" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>26</v>
       </c>
@@ -2527,7 +2548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>27</v>
       </c>
@@ -2541,7 +2562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>27</v>
       </c>
@@ -2555,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>27</v>
       </c>
@@ -2575,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>28</v>
       </c>
@@ -2589,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>28</v>
       </c>
@@ -2603,7 +2624,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="80" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>28</v>
       </c>
@@ -2617,7 +2638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>29</v>
       </c>
@@ -2631,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>29</v>
       </c>
@@ -2645,7 +2666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>29</v>
       </c>
@@ -2659,7 +2680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>30</v>
       </c>
@@ -2679,7 +2700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>30</v>
       </c>
@@ -2699,7 +2720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>30</v>
       </c>
@@ -2713,7 +2734,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>31</v>
       </c>
@@ -2727,7 +2748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -2741,7 +2762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -2761,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -2775,7 +2796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -2795,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -2809,7 +2830,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>56</v>
       </c>
@@ -2829,7 +2850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
@@ -2843,7 +2864,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>56</v>
       </c>
@@ -2863,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>56</v>
       </c>
@@ -2877,7 +2898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>56</v>
       </c>
@@ -2897,7 +2918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>56</v>
       </c>
@@ -2911,7 +2932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="99" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>56</v>
       </c>
@@ -2931,7 +2952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>56</v>
       </c>
@@ -2946,7 +2967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="101" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>56</v>
       </c>
@@ -2966,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>56</v>
       </c>
@@ -2980,7 +3001,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>56</v>
       </c>
@@ -3000,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>59</v>
       </c>
@@ -3014,7 +3035,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3028,7 +3049,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="106" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>59</v>
       </c>
@@ -3042,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>59</v>
       </c>
@@ -3056,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>59</v>
       </c>
@@ -3070,7 +3091,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>33</v>
       </c>
@@ -3084,7 +3105,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>33</v>
       </c>
@@ -3098,7 +3119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>33</v>
       </c>
@@ -3112,7 +3133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>33</v>
       </c>
@@ -3126,7 +3147,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>33</v>
       </c>
@@ -3140,7 +3161,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>66</v>
       </c>
@@ -3160,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>66</v>
       </c>
@@ -3174,7 +3195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>66</v>
       </c>
@@ -3188,7 +3209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>66</v>
       </c>
@@ -3208,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>66</v>
       </c>
@@ -3231,7 +3252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>66</v>
       </c>
@@ -3245,7 +3266,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>66</v>
       </c>
@@ -3259,7 +3280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>66</v>
       </c>
@@ -3279,7 +3300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>66</v>
       </c>
@@ -3299,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>66</v>
       </c>
@@ -3319,7 +3340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>70</v>
       </c>
@@ -3339,7 +3360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>70</v>
       </c>
@@ -3359,7 +3380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>35</v>
       </c>
@@ -3373,7 +3394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="127" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>36</v>
       </c>
@@ -3387,7 +3408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>36</v>
       </c>
@@ -3401,7 +3422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>36</v>
       </c>
@@ -3415,7 +3436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>37</v>
       </c>
@@ -3435,7 +3456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>37</v>
       </c>
@@ -3449,15 +3470,15 @@
         <v>13</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>38</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G132" s="13">
         <v>1</v>
@@ -3466,12 +3487,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>38</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133" s="7">
         <v>1</v>
@@ -3486,12 +3507,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>38</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134" s="7">
         <v>2</v>
@@ -3506,12 +3527,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>38</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G135" s="13">
         <v>2</v>
@@ -3520,12 +3541,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>38</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G136" s="13">
         <v>3</v>
@@ -3534,12 +3555,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>38</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G137" s="13">
         <v>4</v>
@@ -3548,12 +3569,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>38</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G138" s="13">
         <v>5</v>
@@ -3562,12 +3583,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>39</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G139" s="13">
         <v>1</v>
@@ -3576,12 +3597,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>39</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C140" s="7">
         <v>1</v>
@@ -3596,12 +3617,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>40</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C141" s="7">
         <v>1</v>
@@ -3616,12 +3637,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>41</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C142" s="7">
         <v>1</v>
@@ -3636,12 +3657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>41</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C143" s="7">
         <v>2</v>
@@ -3656,12 +3677,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>41</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G144" s="13">
         <v>1</v>
@@ -3670,12 +3691,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>41</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G145" s="13">
         <v>2</v>
@@ -3684,12 +3705,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="146" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>41</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G146" s="13">
         <v>3</v>
@@ -3698,12 +3719,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="147" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>41</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C147" s="7">
         <v>3</v>
@@ -3718,12 +3739,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>42</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C148" s="7">
         <v>1</v>
@@ -3738,12 +3759,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>43</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G149" s="13">
         <v>1</v>
@@ -3752,12 +3773,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>43</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G150" s="13">
         <v>2</v>
@@ -3769,12 +3790,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="151" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="17">
         <v>44</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="19"/>
@@ -3783,15 +3804,18 @@
       <c r="G151" s="21"/>
       <c r="H151" s="22"/>
       <c r="I151" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="17">
         <v>45</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="19"/>
@@ -3800,15 +3824,18 @@
       <c r="G152" s="21"/>
       <c r="H152" s="22"/>
       <c r="I152" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>46</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G153" s="13">
         <v>1</v>
@@ -3817,12 +3844,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>46</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G154" s="13">
         <v>2</v>
@@ -3831,12 +3858,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>46</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G155" s="13">
         <v>3</v>
@@ -3845,12 +3872,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>46</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G156" s="13">
         <v>3</v>
@@ -3859,12 +3886,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>47</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G157" s="13">
         <v>1</v>
@@ -3873,12 +3900,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>47</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G158" s="13">
         <v>2</v>
@@ -3887,12 +3914,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>47</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G159" s="13">
         <v>3</v>
@@ -3901,12 +3928,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>47</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G160" s="13">
         <v>4</v>
@@ -3915,12 +3942,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>48</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C161" s="7">
         <v>1</v>
@@ -3935,12 +3962,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>49</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G162" s="13">
         <v>1</v>
@@ -3949,12 +3976,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>49</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G163" s="13">
         <v>2</v>
@@ -3963,12 +3990,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>49</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G164" s="13">
         <v>3</v>
@@ -3977,12 +4004,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>49</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G165" s="13">
         <v>4</v>
@@ -3991,12 +4018,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>49</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G166" s="13">
         <v>5</v>
@@ -4005,12 +4032,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>50</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G167" s="13">
         <v>1</v>
@@ -4019,12 +4046,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>50</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" s="13">
         <v>2</v>
@@ -4033,63 +4060,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>50</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G169" s="13">
         <v>3</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I169" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>50</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G170" s="13">
         <v>4</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I170" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>50</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" s="13">
         <v>5</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I171" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>51</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C172" s="7">
         <v>1</v>
@@ -4104,12 +4122,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>52</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -4118,12 +4136,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>52</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G174" s="13">
         <v>2</v>
@@ -4132,12 +4150,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>52</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G175" s="13">
         <v>3</v>
@@ -4146,12 +4164,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>52</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G176" s="13">
         <v>4</v>
@@ -4160,26 +4178,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>53</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G177" s="13">
         <v>1</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>53</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C178" s="7">
         <v>1</v>
@@ -4194,12 +4212,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>54</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G179" s="13">
         <v>1</v>
@@ -4208,12 +4226,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>54</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G180" s="13">
         <v>2</v>
@@ -4222,12 +4240,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>54</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G181" s="13">
         <v>3</v>
@@ -4236,12 +4254,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>54</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G182" s="13">
         <v>4</v>
@@ -4250,12 +4268,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>55</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C183" s="7">
         <v>1</v>
@@ -4270,12 +4288,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>56</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G184" s="13">
         <v>1</v>
@@ -4284,211 +4302,250 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>57</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G185" s="13">
         <v>1</v>
       </c>
       <c r="H185" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I185" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J185" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>57</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G186" s="13">
         <v>2</v>
       </c>
       <c r="H186" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>57</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G187" s="13">
         <v>3</v>
       </c>
       <c r="H187" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>57</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G188" s="13">
         <v>4</v>
       </c>
       <c r="H188" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>57</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G189" s="13">
         <v>5</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>57</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G190" s="13">
         <v>6</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>57</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G191" s="13">
         <v>7</v>
       </c>
       <c r="H191" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>57</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G192" s="13">
         <v>8</v>
       </c>
       <c r="H192" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>57</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G193" s="13">
         <v>9</v>
       </c>
       <c r="H193" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>57</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G194" s="13">
         <v>10</v>
       </c>
       <c r="H194" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>57</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G195" s="13">
         <v>11</v>
       </c>
       <c r="H195" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>57</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G196" s="13">
         <v>12</v>
       </c>
       <c r="H196" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>57</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G197" s="13">
         <v>13</v>
       </c>
       <c r="H197" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>57</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G198" s="13">
         <v>14</v>
       </c>
       <c r="H198" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>58</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G199" s="13">
         <v>1</v>
@@ -4497,12 +4554,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>58</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G200" s="13">
         <v>2</v>
@@ -4511,12 +4568,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>58</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G201" s="13">
         <v>3</v>
@@ -4525,12 +4582,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>58</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G202" s="13">
         <v>4</v>
@@ -4539,26 +4596,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>59</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G203" s="13">
         <v>1</v>
       </c>
       <c r="H203" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>59</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G204" s="13">
         <v>2</v>
@@ -4567,12 +4624,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="205" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>59</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G205" s="13">
         <v>3</v>
@@ -4581,26 +4638,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>59</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G206" s="13">
         <v>4</v>
       </c>
       <c r="H206" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>60</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C207" s="7">
         <v>1</v>
@@ -4615,12 +4672,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>60</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C208" s="7">
         <v>2</v>
@@ -4635,12 +4692,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>61</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G209" s="13">
         <v>1</v>
@@ -4649,26 +4706,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>61</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G210" s="13">
         <v>2</v>
       </c>
       <c r="H210" s="14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>61</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C211" s="7">
         <v>1</v>
@@ -4680,12 +4737,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>62</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G212" s="13">
         <v>1</v>
@@ -4694,12 +4751,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>62</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G213" s="13">
         <v>2</v>
@@ -4708,12 +4765,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>63</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C214" s="7">
         <v>1</v>
@@ -4728,12 +4785,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>63</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C215" s="7">
         <v>2</v>
@@ -4748,12 +4805,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>64</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G216" s="13">
         <v>1</v>
@@ -4762,15 +4819,15 @@
         <v>13</v>
       </c>
       <c r="I216" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>64</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C217" s="7">
         <v>1</v>
@@ -4785,29 +4842,29 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>64</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G218" s="13">
+        <v>2</v>
+      </c>
+      <c r="H218" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="G218" s="13">
-        <v>2</v>
-      </c>
-      <c r="H218" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I218" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>65</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G219" s="13">
         <v>1</v>
@@ -4816,12 +4873,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>66</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C220" s="7">
         <v>1</v>
@@ -4836,12 +4893,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>66</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C221" s="7">
         <v>2</v>
@@ -4856,12 +4913,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>67</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G222" s="13">
         <v>1</v>
@@ -4870,12 +4927,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>67</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G223" s="13">
         <v>2</v>
@@ -4884,12 +4941,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>68</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C224" s="7">
         <v>1</v>
@@ -4904,12 +4961,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>69</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G225" s="13">
         <v>1</v>
@@ -4918,15 +4975,15 @@
         <v>13</v>
       </c>
       <c r="I225" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>69</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C226" s="7">
         <v>1</v>
@@ -4941,161 +4998,161 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C227" s="7">
+        <v>1</v>
+      </c>
+      <c r="D227" s="8">
+        <v>2</v>
+      </c>
+      <c r="E227" s="8">
+        <v>1</v>
+      </c>
+      <c r="F227" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B228" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C227" s="7">
-        <v>1</v>
-      </c>
-      <c r="D227" s="8">
-        <v>2</v>
-      </c>
-      <c r="E227" s="8">
-        <v>1</v>
-      </c>
-      <c r="F227" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="3" t="s">
+      <c r="C228" s="7">
+        <v>1</v>
+      </c>
+      <c r="D228" s="8">
+        <v>2</v>
+      </c>
+      <c r="F228" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B229" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C228" s="7">
-        <v>1</v>
-      </c>
-      <c r="D228" s="8">
-        <v>2</v>
-      </c>
-      <c r="F228" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="3" t="s">
+      <c r="C229" s="7">
+        <v>1</v>
+      </c>
+      <c r="D229" s="8">
+        <v>2</v>
+      </c>
+      <c r="F229" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B230" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C229" s="7">
-        <v>1</v>
-      </c>
-      <c r="D229" s="8">
-        <v>2</v>
-      </c>
-      <c r="F229" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="3" t="s">
+      <c r="C230" s="7">
+        <v>1</v>
+      </c>
+      <c r="D230" s="8">
+        <v>2</v>
+      </c>
+      <c r="F230" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B231" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C230" s="7">
-        <v>1</v>
-      </c>
-      <c r="D230" s="8">
-        <v>2</v>
-      </c>
-      <c r="F230" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="3" t="s">
+    </row>
+    <row r="232" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B231" s="3" t="s">
+      <c r="B232" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="232" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="3" t="s">
+    <row r="233" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B233" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B232" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="3" t="s">
+    </row>
+    <row r="234" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B234" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="3" t="s">
+      <c r="C234" s="7">
+        <v>1</v>
+      </c>
+      <c r="D234" s="8">
+        <v>3</v>
+      </c>
+      <c r="E234" s="8">
+        <v>2</v>
+      </c>
+      <c r="F234" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C235" s="7">
+        <v>2</v>
+      </c>
+      <c r="D235" s="8">
+        <v>3</v>
+      </c>
+      <c r="E235" s="8">
+        <v>2</v>
+      </c>
+      <c r="F235" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G236" s="13">
+        <v>1</v>
+      </c>
+      <c r="H236" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B237" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="C234" s="7">
-        <v>1</v>
-      </c>
-      <c r="D234" s="8">
-        <v>3</v>
-      </c>
-      <c r="E234" s="8">
-        <v>2</v>
-      </c>
-      <c r="F234" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C235" s="7">
-        <v>2</v>
-      </c>
-      <c r="D235" s="8">
-        <v>3</v>
-      </c>
-      <c r="E235" s="8">
-        <v>2</v>
-      </c>
-      <c r="F235" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B236" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G236" s="13">
-        <v>1</v>
-      </c>
-      <c r="H236" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="C237" s="7">
         <v>1</v>
@@ -5110,12 +5167,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C238" s="7">
         <v>2</v>
@@ -5130,29 +5187,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G239" s="13">
+        <v>1</v>
+      </c>
+      <c r="H239" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="B239" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G239" s="13">
-        <v>1</v>
-      </c>
-      <c r="H239" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I239" s="16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C240" s="7">
         <v>3</v>
@@ -5167,55 +5224,55 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G241" s="13">
+        <v>1</v>
+      </c>
+      <c r="H241" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G242" s="13">
+        <v>2</v>
+      </c>
+      <c r="H242" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B243" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="G243" s="13">
+        <v>1</v>
+      </c>
+      <c r="H243" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="G241" s="13">
-        <v>1</v>
-      </c>
-      <c r="H241" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="3" t="s">
+      <c r="B244" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G242" s="13">
-        <v>2</v>
-      </c>
-      <c r="H242" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G243" s="13">
-        <v>1</v>
-      </c>
-      <c r="H243" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="G244" s="13">
         <v>2</v>
       </c>
@@ -5223,12 +5280,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>73</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G245" s="13">
         <v>1</v>
@@ -5237,114 +5294,114 @@
         <v>14</v>
       </c>
     </row>
-    <row r="246" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>74</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G246" s="13">
+        <v>1</v>
+      </c>
+      <c r="H246" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" s="16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B247" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="G246" s="13">
-        <v>1</v>
-      </c>
-      <c r="H246" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I246" s="16" t="s">
+      <c r="G247" s="13">
+        <v>1</v>
+      </c>
+      <c r="H247" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="3" t="s">
+      <c r="B248" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G248" s="13">
+        <v>2</v>
+      </c>
+      <c r="H248" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G249" s="13">
+        <v>3</v>
+      </c>
+      <c r="H249" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G250" s="13">
+        <v>4</v>
+      </c>
+      <c r="H250" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B251" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="G251" s="13">
+        <v>1</v>
+      </c>
+      <c r="H251" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G247" s="13">
-        <v>1</v>
-      </c>
-      <c r="H247" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="3" t="s">
+      <c r="B252" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="G252" s="13">
+        <v>2</v>
+      </c>
+      <c r="H252" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="G248" s="13">
-        <v>2</v>
-      </c>
-      <c r="H248" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="3" t="s">
+      <c r="B253" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G249" s="13">
-        <v>3</v>
-      </c>
-      <c r="H249" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G250" s="13">
-        <v>4</v>
-      </c>
-      <c r="H250" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G251" s="13">
-        <v>1</v>
-      </c>
-      <c r="H251" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G252" s="13">
-        <v>2</v>
-      </c>
-      <c r="H252" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="G253" s="13">
         <v>3</v>
       </c>
@@ -5352,26 +5409,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>76</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G254" s="13">
+        <v>1</v>
+      </c>
+      <c r="H254" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B255" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G254" s="13">
-        <v>1</v>
-      </c>
-      <c r="H254" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="G255" s="13">
         <v>1</v>
@@ -5380,12 +5437,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="256" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G256" s="13">
         <v>1</v>
@@ -5394,23 +5451,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="257" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I257" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B257" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="I257" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>78</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G258" s="13">
         <v>1</v>
@@ -5419,27 +5476,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>78</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G259" s="13">
+        <v>2</v>
+      </c>
+      <c r="H259" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B260" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G259" s="13">
-        <v>2</v>
-      </c>
-      <c r="H259" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="G260" s="13">
         <v>1</v>
       </c>
@@ -5447,12 +5504,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="261" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G261" s="13">
         <v>2</v>
@@ -5461,12 +5518,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G262" s="13">
         <v>3</v>
@@ -5475,12 +5532,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G263" s="13">
         <v>4</v>
@@ -5489,12 +5546,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G264" s="13">
         <v>5</v>
@@ -5503,12 +5560,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G265" s="13">
         <v>6</v>
@@ -5517,12 +5574,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G266" s="13">
         <v>7</v>
@@ -5531,40 +5588,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I267" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B268" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="I267" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="3" t="s">
+      <c r="G268" s="13">
+        <v>1</v>
+      </c>
+      <c r="H268" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="B268" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="G268" s="13">
-        <v>1</v>
-      </c>
-      <c r="H268" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="I268" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="269" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>80</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C269" s="7">
         <v>1</v>
@@ -5579,12 +5636,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>80</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C270" s="7">
         <v>2</v>
@@ -5599,12 +5656,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>80</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C271" s="7">
         <v>3</v>
@@ -5619,12 +5676,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>80</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C272" s="7">
         <v>4</v>
@@ -5639,26 +5696,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>80</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G273" s="13">
+        <v>1</v>
+      </c>
+      <c r="H273" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="G273" s="13">
-        <v>1</v>
-      </c>
-      <c r="H273" s="14" t="s">
+      <c r="B274" s="3" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="G274" s="13">
         <v>1</v>
@@ -5670,26 +5727,26 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G275" s="13">
+        <v>2</v>
+      </c>
+      <c r="H275" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B276" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="G275" s="13">
-        <v>2</v>
-      </c>
-      <c r="H275" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B276" s="3" t="s">
-        <v>168</v>
       </c>
       <c r="G276" s="13">
         <v>1</v>
@@ -5701,60 +5758,60 @@
         <v>68</v>
       </c>
     </row>
-    <row r="277" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G277" s="13">
+        <v>2</v>
+      </c>
+      <c r="H277" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="I277" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="G277" s="13">
-        <v>2</v>
-      </c>
-      <c r="H277" s="14" t="s">
+    </row>
+    <row r="278" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B278" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="I277" s="16" t="s">
+      <c r="G278" s="13">
+        <v>1</v>
+      </c>
+      <c r="H278" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B278" s="3" t="s">
+      <c r="B279" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G279" s="13">
+        <v>2</v>
+      </c>
+      <c r="H279" s="14" t="s">
         <v>171</v>
-      </c>
-      <c r="G278" s="13">
-        <v>1</v>
-      </c>
-      <c r="H278" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B279" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G279" s="13">
-        <v>2</v>
-      </c>
-      <c r="H279" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="I279" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="280" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G280" s="13">
         <v>1</v>
@@ -5763,12 +5820,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>83</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G281" s="13">
         <v>1</v>
@@ -5777,51 +5834,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>84</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G282" s="13">
         <v>1</v>
       </c>
       <c r="H282" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>84</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G283" s="13">
         <v>2</v>
       </c>
       <c r="H283" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>85</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I284" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>86</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G285" s="13">
         <v>1</v>
@@ -5830,26 +5887,26 @@
         <v>63</v>
       </c>
     </row>
-    <row r="286" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>86</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G286" s="13">
         <v>2</v>
       </c>
       <c r="H286" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>87</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G287" s="13">
         <v>1</v>
@@ -5858,12 +5915,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>87</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G288" s="13">
         <v>2</v>
@@ -5872,12 +5929,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C289" s="7">
         <v>1</v>
@@ -5892,15 +5949,15 @@
         <v>4</v>
       </c>
       <c r="I289" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B290" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C290" s="7">
         <v>1</v>
@@ -5915,15 +5972,15 @@
         <v>1</v>
       </c>
       <c r="I290" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B291" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C291" s="7">
         <v>2</v>
@@ -5938,15 +5995,15 @@
         <v>1</v>
       </c>
       <c r="I291" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B292" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C292" s="7">
         <v>3</v>
@@ -5961,15 +6018,15 @@
         <v>1</v>
       </c>
       <c r="I292" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B293" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C293" s="7">
         <v>4</v>
@@ -5984,15 +6041,15 @@
         <v>1</v>
       </c>
       <c r="I293" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B294" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C294" s="7">
         <v>5</v>
@@ -6007,15 +6064,15 @@
         <v>1</v>
       </c>
       <c r="I294" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B295" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C295" s="7">
         <v>6</v>
@@ -6030,15 +6087,15 @@
         <v>1</v>
       </c>
       <c r="I295" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B296" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C296" s="7">
         <v>7</v>
@@ -6053,15 +6110,15 @@
         <v>1</v>
       </c>
       <c r="I296" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B297" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C297" s="7">
         <v>8</v>
@@ -6076,15 +6133,15 @@
         <v>1</v>
       </c>
       <c r="I297" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B298" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C298" s="7">
         <v>9</v>
@@ -6099,15 +6156,15 @@
         <v>1</v>
       </c>
       <c r="I298" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B299" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C299" s="7">
         <v>10</v>
@@ -6122,15 +6179,15 @@
         <v>1</v>
       </c>
       <c r="I299" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B300" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C300" s="7">
         <v>11</v>
@@ -6145,15 +6202,15 @@
         <v>1</v>
       </c>
       <c r="I300" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B301" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C301" s="7">
         <v>12</v>
@@ -6168,15 +6225,15 @@
         <v>1</v>
       </c>
       <c r="I301" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B302" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C302" s="7">
         <v>13</v>
@@ -6191,15 +6248,15 @@
         <v>1</v>
       </c>
       <c r="I302" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B303" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C303" s="7">
         <v>14</v>
@@ -6214,15 +6271,15 @@
         <v>1</v>
       </c>
       <c r="I303" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B304" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C304" s="7">
         <v>15</v>
@@ -6237,15 +6294,15 @@
         <v>1</v>
       </c>
       <c r="I304" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B305" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C305" s="7">
         <v>16</v>
@@ -6260,15 +6317,15 @@
         <v>1</v>
       </c>
       <c r="I305" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B306" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C306" s="7">
         <v>17</v>
@@ -6283,15 +6340,15 @@
         <v>1</v>
       </c>
       <c r="I306" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B307" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C307" s="7">
         <v>18</v>
@@ -6306,15 +6363,15 @@
         <v>1</v>
       </c>
       <c r="I307" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B308" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C308" s="7">
         <v>19</v>
@@ -6329,15 +6386,15 @@
         <v>1</v>
       </c>
       <c r="I308" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B309" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C309" s="7">
         <v>20</v>
@@ -6352,15 +6409,15 @@
         <v>1</v>
       </c>
       <c r="I309" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B310" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C310" s="7">
         <v>21</v>
@@ -6375,15 +6432,15 @@
         <v>1</v>
       </c>
       <c r="I310" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B311" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C311" s="7">
         <v>22</v>
@@ -6398,15 +6455,15 @@
         <v>1</v>
       </c>
       <c r="I311" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B312" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C312" s="7">
         <v>23</v>
@@ -6421,15 +6478,15 @@
         <v>1</v>
       </c>
       <c r="I312" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B313" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C313" s="7">
         <v>24</v>
@@ -6444,15 +6501,15 @@
         <v>1</v>
       </c>
       <c r="I313" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="B314" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C314" s="7">
         <v>25</v>
@@ -6467,15 +6524,15 @@
         <v>1</v>
       </c>
       <c r="I314" s="16" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>89</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G315" s="13">
         <v>1</v>
@@ -6484,12 +6541,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>89</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G316" s="13">
         <v>2</v>
@@ -6498,12 +6555,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>89</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G317" s="13">
         <v>2</v>
@@ -6512,12 +6569,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>89</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G318" s="13">
         <v>4</v>
@@ -6526,74 +6583,74 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>89</v>
       </c>
       <c r="B319" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G319" s="13">
+        <v>5</v>
+      </c>
+      <c r="H319" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G319" s="13">
-        <v>5</v>
-      </c>
-      <c r="H319" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="3" t="s">
+      <c r="C320" s="7">
+        <v>1</v>
+      </c>
+      <c r="D320" s="8">
+        <v>3</v>
+      </c>
+      <c r="E320" s="8">
+        <v>2</v>
+      </c>
+      <c r="F320" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G321" s="13">
+        <v>1</v>
+      </c>
+      <c r="H321" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B322" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B320" s="3" t="s">
+      <c r="G322" s="13">
+        <v>1</v>
+      </c>
+      <c r="H322" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C320" s="7">
-        <v>1</v>
-      </c>
-      <c r="D320" s="8">
-        <v>3</v>
-      </c>
-      <c r="E320" s="8">
-        <v>2</v>
-      </c>
-      <c r="F320" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="3" t="s">
+      <c r="B323" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="G321" s="13">
-        <v>1</v>
-      </c>
-      <c r="H321" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="G322" s="13">
-        <v>1</v>
-      </c>
-      <c r="H322" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>190</v>
       </c>
       <c r="G323" s="13">
         <v>2</v>
@@ -6605,12 +6662,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="324" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>91</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G324" s="13">
         <v>1</v>
@@ -6619,68 +6676,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>91</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G325" s="13">
         <v>2</v>
       </c>
       <c r="H325" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>92</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G326" s="13">
         <v>1</v>
       </c>
       <c r="H326" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>92</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G327" s="13">
         <v>2</v>
       </c>
       <c r="H327" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>92</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G328" s="13">
         <v>3</v>
       </c>
       <c r="H328" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>93</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G329" s="13">
         <v>1</v>
@@ -6689,12 +6746,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>93</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C330" s="7">
         <v>1</v>
@@ -6709,12 +6766,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>93</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C331" s="7">
         <v>2</v>
@@ -6729,12 +6786,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>93</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C332" s="7">
         <v>3</v>
@@ -6749,12 +6806,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>94</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G333" s="13">
         <v>1</v>
@@ -6763,12 +6820,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>94</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C334" s="7">
         <v>1</v>
@@ -6783,12 +6840,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>94</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C335" s="7">
         <v>2</v>
@@ -6803,12 +6860,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>94</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C336" s="7">
         <v>3</v>
@@ -6823,12 +6880,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>94</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C337" s="7">
         <v>4</v>
@@ -6843,12 +6900,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>94</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C338" s="7">
         <v>5</v>
@@ -6863,12 +6920,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>94</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C339" s="7">
         <v>6</v>
@@ -6883,12 +6940,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>94</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G340" s="13">
         <v>2</v>
@@ -6897,12 +6954,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>94</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G341" s="13">
         <v>3</v>
@@ -6911,12 +6968,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>94</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G342" s="13">
         <v>4</v>
@@ -6925,12 +6982,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>94</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G343" s="13">
         <v>5</v>
@@ -6939,29 +6996,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>95</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G344" s="13">
         <v>1</v>
       </c>
       <c r="H344" s="14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I344" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="345" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>96</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G345" s="13">
         <v>1</v>
@@ -6970,12 +7027,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>96</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G346" s="13">
         <v>2</v>
@@ -6984,12 +7041,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>96</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G347" s="13">
         <v>3</v>
@@ -6998,12 +7055,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>96</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C348" s="7">
         <v>1</v>
@@ -7018,12 +7075,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>97</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G349" s="13">
         <v>1</v>
@@ -7032,23 +7089,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="350" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>98</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I350" s="16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>99</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C351" s="7">
         <v>1</v>
@@ -7063,40 +7120,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>99</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G352" s="13">
         <v>1</v>
       </c>
       <c r="H352" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>99</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G353" s="13">
         <v>2</v>
       </c>
       <c r="H353" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>99</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G354" s="13">
         <v>3</v>
@@ -7105,26 +7162,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>99</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G355" s="13">
         <v>4</v>
       </c>
       <c r="H355" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>100</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C356" s="7">
         <v>1</v>
@@ -7139,26 +7196,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>100</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G357" s="13">
         <v>1</v>
       </c>
       <c r="H357" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>100</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C358" s="7">
         <v>2</v>
@@ -7173,150 +7230,150 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>101</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G359" s="13">
         <v>1</v>
       </c>
       <c r="H359" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I359" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="360" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>101</v>
       </c>
       <c r="B360" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G360" s="13">
+        <v>2</v>
+      </c>
+      <c r="H360" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="G360" s="13">
-        <v>2</v>
-      </c>
-      <c r="H360" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="I360" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="361" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>101</v>
       </c>
       <c r="B361" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G361" s="13">
+        <v>3</v>
+      </c>
+      <c r="H361" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="G361" s="13">
-        <v>3</v>
-      </c>
-      <c r="H361" s="14" t="s">
-        <v>207</v>
       </c>
       <c r="I361" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="362" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>102</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G362" s="13">
         <v>1</v>
       </c>
       <c r="H362" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>102</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G363" s="13">
         <v>2</v>
       </c>
       <c r="H363" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>102</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G364" s="13">
         <v>3</v>
       </c>
       <c r="H364" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>102</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G365" s="13">
         <v>4</v>
       </c>
       <c r="H365" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>102</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G366" s="13">
         <v>5</v>
       </c>
       <c r="H366" s="14" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>103</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G367" s="13">
         <v>1</v>
       </c>
       <c r="H367" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I367" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="368" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>104</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G368" s="13">
         <v>1</v>
@@ -7325,12 +7382,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>104</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C369" s="7">
         <v>1</v>
@@ -7345,12 +7402,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>105</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G370" s="13">
         <v>1</v>
@@ -7359,12 +7416,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>105</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G371" s="13">
         <v>2</v>
@@ -7373,12 +7430,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>105</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G372" s="13">
         <v>3</v>
@@ -7387,12 +7444,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>105</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G373" s="13">
         <v>4</v>
@@ -7401,12 +7458,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>105</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G374" s="13">
         <v>5</v>
@@ -7415,12 +7472,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>105</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G375" s="13">
         <v>6</v>
@@ -7429,12 +7486,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>105</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G376" s="13">
         <v>7</v>
@@ -7443,12 +7500,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>105</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G377" s="13">
         <v>8</v>
@@ -7457,12 +7514,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>105</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G378" s="13">
         <v>9</v>
@@ -7471,12 +7528,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>105</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G379" s="13">
         <v>10</v>
@@ -7485,12 +7542,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>106</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C380" s="7">
         <v>1</v>
@@ -7505,12 +7562,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>107</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C381" s="7">
         <v>1</v>
@@ -7525,46 +7582,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="382" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G382" s="13">
+        <v>1</v>
+      </c>
+      <c r="H382" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C383" s="7">
+        <v>1</v>
+      </c>
+      <c r="D383" s="8">
+        <v>2</v>
+      </c>
+      <c r="E383" s="8">
+        <v>1</v>
+      </c>
+      <c r="F383" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="B382" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G382" s="13">
-        <v>1</v>
-      </c>
-      <c r="H382" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A383" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B383" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C383" s="7">
-        <v>1</v>
-      </c>
-      <c r="D383" s="8">
-        <v>2</v>
-      </c>
-      <c r="E383" s="8">
-        <v>1</v>
-      </c>
-      <c r="F383" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A384" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="B384" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="C384" s="7">
         <v>1</v>
@@ -7576,12 +7633,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G385" s="13">
         <v>1</v>
